--- a/src/analysis/modified_corpus_batches/xlsx/batch_2.xlsx
+++ b/src/analysis/modified_corpus_batches/xlsx/batch_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkang/Documents/MDS/block5/labs/COLX_523_Group-Repository_David-Daoming-Jacob-Nicole/src/analysis/modified_corpus_batches/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daomingliu/Desktop/mds-cl/523/COLX_523_Group-Repository_David-Daoming-Jacob-Nicole/src/analysis/modified_corpus_batches/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401693D0-DBDE-EF40-91CA-266229C1820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE6D86-BB71-004D-860D-4BE4BEFF4CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="705">
   <si>
     <t>Reviewer</t>
   </si>
@@ -2143,7 +2143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,6 +2157,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2166,7 +2188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2200,18 +2222,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5292,7 +5335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1B7CF3-CBF7-E14A-B4C5-0DE15A0B3A3F}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5661,12 +5704,367 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8255ED77-221A-F345-8A5E-FE449E37D463}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/analysis/modified_corpus_batches/xlsx/batch_2.xlsx
+++ b/src/analysis/modified_corpus_batches/xlsx/batch_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkang/Documents/MDS/block5/labs/COLX_523_Group-Repository_David-Daoming-Jacob-Nicole/src/analysis/modified_corpus_batches/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401693D0-DBDE-EF40-91CA-266229C1820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A3325-4094-744C-91EC-166104232F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/analysis/modified_corpus_batches/xlsx/batch_2.xlsx
+++ b/src/analysis/modified_corpus_batches/xlsx/batch_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkang/Documents/MDS/block5/labs/COLX_523_Group-Repository_David-Daoming-Jacob-Nicole/src/analysis/modified_corpus_batches/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daomingliu/Desktop/mds-cl/523/COLX_523_Group-Repository_David-Daoming-Jacob-Nicole/src/analysis/modified_corpus_batches/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A3325-4094-744C-91EC-166104232F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE6D86-BB71-004D-860D-4BE4BEFF4CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="705">
   <si>
     <t>Reviewer</t>
   </si>
@@ -2143,7 +2143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,6 +2157,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2166,7 +2188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2200,18 +2222,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5292,7 +5335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1B7CF3-CBF7-E14A-B4C5-0DE15A0B3A3F}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5661,12 +5704,367 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8255ED77-221A-F345-8A5E-FE449E37D463}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/analysis/modified_corpus_batches/xlsx/batch_2.xlsx
+++ b/src/analysis/modified_corpus_batches/xlsx/batch_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daomingliu/Desktop/mds-cl/523/COLX_523_Group-Repository_David-Daoming-Jacob-Nicole/src/analysis/modified_corpus_batches/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkang/Documents/MDS/block5/labs/COLX_523_Group-Repository_David-Daoming-Jacob-Nicole/src/analysis/modified_corpus_batches/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE6D86-BB71-004D-860D-4BE4BEFF4CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9F3B6E-9F8C-1642-8938-3DDD5A831F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="707">
   <si>
     <t>Reviewer</t>
   </si>
@@ -2137,13 +2137,19 @@
   </si>
   <si>
     <t>Logos</t>
+  </si>
+  <si>
+    <t>ewer</t>
+  </si>
+  <si>
+    <t>Ethos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2158,11 +2164,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2170,14 +2175,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2188,7 +2185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2222,24 +2219,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2247,14 +2231,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5335,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1B7CF3-CBF7-E14A-B4C5-0DE15A0B3A3F}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5453,6 +5431,9 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
+      <c r="D8" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5520,6 +5501,9 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
+      <c r="D13" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5587,6 +5571,9 @@
       <c r="C18" t="s">
         <v>53</v>
       </c>
+      <c r="D18" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -5625,6 +5612,9 @@
       </c>
       <c r="C21" t="s">
         <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5706,361 +5696,373 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8255ED77-221A-F345-8A5E-FE449E37D463}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>704</v>
+      <c r="D11" s="4" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>703</v>
       </c>
     </row>
